--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/pokeredCHS/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D9767B-845A-A242-8A59-1E55B083906A}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="1800" windowWidth="28080" windowHeight="23220" activeTab="3" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="-29900" yWindow="1280" windowWidth="28080" windowHeight="23220" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Moves" sheetId="3" r:id="rId3"/>
     <sheet name="Townnames" sheetId="6" r:id="rId4"/>
     <sheet name="PC" sheetId="7" r:id="rId5"/>
-    <sheet name="Main" sheetId="4" r:id="rId6"/>
+    <sheet name="Trainers" sheetId="9" r:id="rId6"/>
+    <sheet name="Main" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1463">
   <si>
     <t>"RHYDON@@@@"</t>
   </si>
@@ -4398,13 +4399,503 @@
   </si>
   <si>
     <t>25号道路</t>
+  </si>
+  <si>
+    <t>"YOUNGSTER@"</t>
+  </si>
+  <si>
+    <t>"BUG CATCHER@"</t>
+  </si>
+  <si>
+    <t>"LASS@"</t>
+  </si>
+  <si>
+    <t>"JR.TRAINER♂@"</t>
+  </si>
+  <si>
+    <t>"JR.TRAINER♀@"</t>
+  </si>
+  <si>
+    <t>"POKéMANIAC@"</t>
+  </si>
+  <si>
+    <t>"SUPER NERD@"</t>
+  </si>
+  <si>
+    <t>"BURGLAR@"</t>
+  </si>
+  <si>
+    <t>"ENGINEER@"</t>
+  </si>
+  <si>
+    <t>"JUGGLER@"</t>
+  </si>
+  <si>
+    <t>"SWIMMER@"</t>
+  </si>
+  <si>
+    <t>"BEAUTY@"</t>
+  </si>
+  <si>
+    <t>"ROCKER@"</t>
+  </si>
+  <si>
+    <t>"BLACKBELT@"</t>
+  </si>
+  <si>
+    <t>"PROF.OAK@"</t>
+  </si>
+  <si>
+    <t>"CHIEF@"</t>
+  </si>
+  <si>
+    <t>"SCIENTIST@"</t>
+  </si>
+  <si>
+    <t>"ROCKET@"</t>
+  </si>
+  <si>
+    <t>"COOLTRAINER♂@"</t>
+  </si>
+  <si>
+    <t>"COOLTRAINER♀@"</t>
+  </si>
+  <si>
+    <t>短裤小子</t>
+  </si>
+  <si>
+    <t>捕虫少年</t>
+  </si>
+  <si>
+    <t>迷你裙</t>
+  </si>
+  <si>
+    <t>水手</t>
+  </si>
+  <si>
+    <t>童子军</t>
+  </si>
+  <si>
+    <t>女童军</t>
+  </si>
+  <si>
+    <t>怪兽狂</t>
+  </si>
+  <si>
+    <t>理科男</t>
+  </si>
+  <si>
+    <t>登山男</t>
+  </si>
+  <si>
+    <t>暴走族</t>
+  </si>
+  <si>
+    <t>趁火打劫者</t>
+  </si>
+  <si>
+    <t>电工大叔</t>
+  </si>
+  <si>
+    <t>杂耍艺人</t>
+  </si>
+  <si>
+    <t>垂钓者</t>
+  </si>
+  <si>
+    <t>泳裤小伙子</t>
+  </si>
+  <si>
+    <t>光头男</t>
+  </si>
+  <si>
+    <t>赌徒</t>
+  </si>
+  <si>
+    <t>大姐姐</t>
+  </si>
+  <si>
+    <t>超能力者</t>
+  </si>
+  <si>
+    <t>电气摇滚团</t>
+  </si>
+  <si>
+    <t>驯兽师</t>
+  </si>
+  <si>
+    <t>养鸟人</t>
+  </si>
+  <si>
+    <t>空手道王</t>
+  </si>
+  <si>
+    <t>劲敌1</t>
+  </si>
+  <si>
+    <t>大木博士</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>研究员</t>
+  </si>
+  <si>
+    <t>坂木</t>
+  </si>
+  <si>
+    <t>火箭队员</t>
+  </si>
+  <si>
+    <t>精英训练家♂</t>
+  </si>
+  <si>
+    <t>精英训练家♀</t>
+  </si>
+  <si>
+    <t>希巴</t>
+  </si>
+  <si>
+    <t>小刚</t>
+  </si>
+  <si>
+    <t>小霞</t>
+  </si>
+  <si>
+    <t>马志士</t>
+  </si>
+  <si>
+    <t>莉佳</t>
+  </si>
+  <si>
+    <t>阿桔</t>
+  </si>
+  <si>
+    <t>夏伯</t>
+  </si>
+  <si>
+    <t>娜姿</t>
+  </si>
+  <si>
+    <t>绅士</t>
+  </si>
+  <si>
+    <t>劲敌2</t>
+  </si>
+  <si>
+    <t>劲敌3</t>
+  </si>
+  <si>
+    <t>科拿</t>
+  </si>
+  <si>
+    <t>祈祷师</t>
+  </si>
+  <si>
+    <t>菊子</t>
+  </si>
+  <si>
+    <t>阿渡</t>
+  </si>
+  <si>
+    <t>data/trainers/name_pointers.asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/trainers/names.asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_start TrainerNames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_list_length NUM_TRAINERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"YOUNGSTER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BUG CATCHER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LASS"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SAILOR"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"JR.TRAINER♂"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"JR.TRAINER♀"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"POKéMANIAC"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SUPER NERD"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"HIKER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BIKER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BURGLAR"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ENGINEER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"JUGGLER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"FISHERMAN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SWIMMER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CUE BALL"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GAMBLER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BEAUTY"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PSYCHIC"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ROCKER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"TAMER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BIRD KEEPER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BLACKBELT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"RIVAL1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PROF.OAK"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CHIEF"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SCIENTIST"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GIOVANNI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ROCKET"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"COOLTRAINER♂"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"COOLTRAINER♀"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BRUNO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BROCK"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"MISTY"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LT.SURGE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ERIKA"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"KOGA"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BLAINE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SABRINA"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GENTLEMAN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"RIVAL2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"RIVAL3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LORELEI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CHANNELER"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"AGATHA"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LANCE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dw .YoungsterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dw wTrainerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dw .BugCatcherName</t>
+  </si>
+  <si>
+    <t>dw .LassName</t>
+  </si>
+  <si>
+    <t>dw .JrTrainerMName</t>
+  </si>
+  <si>
+    <t>dw .JrTrainerFName</t>
+  </si>
+  <si>
+    <t>dw .PokemaniacName</t>
+  </si>
+  <si>
+    <t>dw .SuperNerdName</t>
+  </si>
+  <si>
+    <t>dw .BurglarName</t>
+  </si>
+  <si>
+    <t>dw .EngineerName</t>
+  </si>
+  <si>
+    <t>dw .UnusedJugglerName</t>
+  </si>
+  <si>
+    <t>dw .SwimmerName</t>
+  </si>
+  <si>
+    <t>dw .BeautyName</t>
+  </si>
+  <si>
+    <t>dw .RockerName</t>
+  </si>
+  <si>
+    <t>dw .JugglerName</t>
+  </si>
+  <si>
+    <t>dw .BlackbeltName</t>
+  </si>
+  <si>
+    <t>dw .ProfOakName</t>
+  </si>
+  <si>
+    <t>dw .ChiefName</t>
+  </si>
+  <si>
+    <t>dw .ScientistName</t>
+  </si>
+  <si>
+    <t>dw .RocketName</t>
+  </si>
+  <si>
+    <t>dw .CooltrainerMName</t>
+  </si>
+  <si>
+    <t>dw .CooltrainerFName</t>
+  </si>
+  <si>
+    <t>"disabled!@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已被封印！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"TYPE@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Enemy @"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4452,6 +4943,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4478,7 +4991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4495,6 +5008,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8586,7 +9108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119CF22-87BD-9E41-AACB-EEAEFA54B43A}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E44" sqref="E7:E44"/>
     </sheetView>
   </sheetViews>
@@ -9253,7 +9775,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9466,11 +9988,751 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0612F-D8CC-3541-8920-4018D9285493}">
+  <dimension ref="A1:D95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B53" r:id="rId1" display="啊YOUNGSTER@啊" xr:uid="{96B196B9-E533-FA45-94A3-1AAA7FBDF687}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10894,51 +12156,75 @@
     </row>
     <row r="184" spans="1:3">
       <c r="B184" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="B185" t="s">
         <v>1236</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
         <v>1237</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="B186" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="B187" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="B188" t="s">
         <v>1239</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
         <v>1251</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="B189" t="s">
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
         <v>1252</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="B192" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10983,6 +12269,7 @@
     <hyperlink ref="C158" r:id="rId36" xr:uid="{7141C145-FC1E-EC45-9DA7-15AE272A6ECC}"/>
     <hyperlink ref="C159" r:id="rId37" xr:uid="{3C9A601B-C396-BA4B-B2D0-4AEC70654B2B}"/>
     <hyperlink ref="C162" r:id="rId38" xr:uid="{58F714C0-B903-C142-899D-4271652860CA}"/>
+    <hyperlink ref="C192" r:id="rId39" display="属性2/@" xr:uid="{3F210343-3C97-DD43-9FB6-128C93F0CC09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D9767B-845A-A242-8A59-1E55B083906A}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808A3A39-C03C-784E-BF03-DA6F7AD86348}"/>
   <bookViews>
     <workbookView xWindow="-29900" yWindow="1280" windowWidth="28080" windowHeight="23220" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1477">
   <si>
     <t>"RHYDON@@@@"</t>
   </si>
@@ -4888,6 +4888,62 @@
   </si>
   <si>
     <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PLEASE WAIT!@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Trade completed!@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Too bad! The trade"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"was canceled!@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换完成！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常抱歉，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换已取消！@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine/link/cable_club.asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine/link/print_waiting_text.asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您稍等……@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Waiting...!@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您稍等……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"STATS     TRADE@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看能力    交换@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5035,6 +5091,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10729,10 +10789,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12223,8 +12283,77 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
+        <v>839</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="B199" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B200" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
         <v>151</v>
       </c>
     </row>
@@ -12270,6 +12399,8 @@
     <hyperlink ref="C159" r:id="rId37" xr:uid="{3C9A601B-C396-BA4B-B2D0-4AEC70654B2B}"/>
     <hyperlink ref="C162" r:id="rId38" xr:uid="{58F714C0-B903-C142-899D-4271652860CA}"/>
     <hyperlink ref="C192" r:id="rId39" display="属性2/@" xr:uid="{3F210343-3C97-DD43-9FB6-128C93F0CC09}"/>
+    <hyperlink ref="C194" r:id="rId40" xr:uid="{D6B7D2BE-9B5C-D749-8E76-8A34B42DB0D8}"/>
+    <hyperlink ref="C195" r:id="rId41" display="请您稍等...@" xr:uid="{B7F4FD4C-8EB7-CB4D-89F7-24B042A3CEF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808A3A39-C03C-784E-BF03-DA6F7AD86348}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15213FC8-3880-7F42-9DB9-FCB18CC320B1}"/>
   <bookViews>
-    <workbookView xWindow="-29900" yWindow="1280" windowWidth="28080" windowHeight="23220" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="5960" yWindow="760" windowWidth="28080" windowHeight="20440" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -10792,7 +10792,7 @@
   <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1815" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A354349D-DF8B-7C46-8201-E04738414740}"/>
+  <xr:revisionPtr revIDLastSave="1849" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4858239D-E3EE-1540-B1DE-3C04C5FFA4A1}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="20040" yWindow="520" windowWidth="34560" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="2158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="2176">
   <si>
     <t>data/pokemon/names.asm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7476,6 +7476,78 @@
   </si>
   <si>
     <t>-Wtruncation=1 -D _DEBUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine/battle/animations.asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and 7 ; is the subanimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; and 7 ; is the subanimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call z, AnimationFlashScreen ; if so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; call z, AnimationFlashScreen ; if so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; srl a ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srl a ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; call c, AnimationFlashScreen ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call c, AnimationFlashScreen ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复频闪动画，当前未启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld a, [wSubAnimCounter] ; internat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; ld a, [wSubAnimCounter] ; internat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and 3 ; international version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; and 3 ; international version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call z, AnimationFlashScreen ; in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; call z, AnimationFlashScreen ; in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; jp AnimationFlashScreen ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp AnimationFlashScreen ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18921,18 +18993,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA242F4-66CD-6D4D-ACDF-2A955EF3AA35}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19002,27 +19074,104 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>2154</v>
+        <v>2158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2167</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="12" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1895</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="12" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="12" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="12" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="12" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="12" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="12" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="12" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="12" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="12" t="s">
         <v>2156</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>447</v>
       </c>
     </row>

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1849" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4858239D-E3EE-1540-B1DE-3C04C5FFA4A1}"/>
+  <xr:revisionPtr revIDLastSave="1856" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E941479B-910C-EE47-BB08-374D324FB3B2}"/>
   <bookViews>
     <workbookView xWindow="20040" yWindow="520" windowWidth="34560" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
@@ -7483,22 +7483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>and 7 ; is the subanimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; and 7 ; is the subanimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>call z, AnimationFlashScreen ; if so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; call z, AnimationFlashScreen ; if so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>; srl a ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7548,6 +7532,22 @@
   </si>
   <si>
     <t>jp AnimationFlashScreen ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and 7 ; international</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call z, AnimationFlashScreen ; international</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; and 7 ; international</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; call z, AnimationFlashScreen ; international</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18996,7 +18996,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19004,7 +19004,7 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19077,71 +19077,71 @@
         <v>2158</v>
       </c>
       <c r="F9" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="12" t="s">
-        <v>2159</v>
+        <v>2172</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>2160</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="12" t="s">
-        <v>2161</v>
+        <v>2173</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2162</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="12" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="12" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="12" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="12" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="12" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="12" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="18" spans="1:4">

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1856" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E941479B-910C-EE47-BB08-374D324FB3B2}"/>
+  <xr:revisionPtr revIDLastSave="1858" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794E9B83-8320-3C46-8732-0AC869DCC459}"/>
   <bookViews>
     <workbookView xWindow="20040" yWindow="520" windowWidth="34560" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
@@ -18996,7 +18996,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeredCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1858" documentId="13_ncr:1_{D2E0CFCF-FF8A-3E46-A184-BF5551DB5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794E9B83-8320-3C46-8732-0AC869DCC459}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3139D-7155-7D47-8053-55092A75CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="520" windowWidth="34560" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -7459,10 +7459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v101@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Makefile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7548,6 +7544,10 @@
   </si>
   <si>
     <t>; call z, AnimationFlashScreen ; international</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v110@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7738,10 +7738,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15715,8 +15711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15905,7 +15901,7 @@
         <v>2140</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2153</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -18995,7 +18991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA242F4-66CD-6D4D-ACDF-2A955EF3AA35}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -19074,74 +19070,74 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="F9" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="12" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="12" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="12" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>2159</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="12" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>2161</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="12" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>2164</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="12" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>2166</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="12" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>2168</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="12" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>2170</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19151,12 +19147,12 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="12" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>1895</v>
@@ -19164,10 +19160,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="12" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2156</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="22" spans="1:4">

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeredCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3139D-7155-7D47-8053-55092A75CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E2EC6-84FA-F04F-8A03-CBF01510D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
@@ -6837,10 +6837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜登入名人堂  第@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恭喜登入名人堂！@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7548,6 +7544,10 @@
   </si>
   <si>
     <t>v110@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第   次 登入名人堂@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11544,7 +11544,7 @@
         <v>620</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="94" spans="2:3">
@@ -14084,7 +14084,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1260</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="F23" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>1260</v>
@@ -14175,7 +14175,7 @@
         <v>1239</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -14183,7 +14183,7 @@
         <v>1240</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -14201,7 +14201,7 @@
         <v>1243</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -14219,7 +14219,7 @@
         <v>1246</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -14227,7 +14227,7 @@
         <v>1247</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -14235,7 +14235,7 @@
         <v>1248</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -14243,12 +14243,12 @@
         <v>1249</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="B35" s="6" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -14256,7 +14256,7 @@
         <v>1251</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -14264,7 +14264,7 @@
         <v>1248</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -14272,7 +14272,7 @@
         <v>1252</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -14280,12 +14280,12 @@
         <v>1253</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="B40" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -14293,7 +14293,7 @@
         <v>1255</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -14301,7 +14301,7 @@
         <v>1256</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -14309,7 +14309,7 @@
         <v>1257</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -14317,12 +14317,12 @@
         <v>1258</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="B45" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1456</v>
@@ -14356,16 +14356,16 @@
         <v>1154</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -14373,7 +14373,7 @@
         <v>1156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>1725</v>
@@ -14388,16 +14388,16 @@
         <v>1156</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="49" spans="2:18">
@@ -14420,10 +14420,10 @@
         <v>1158</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>1723</v>
@@ -14449,7 +14449,7 @@
         <v>1159</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>1160</v>
@@ -14460,7 +14460,7 @@
         <v>1161</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>1728</v>
@@ -14475,13 +14475,13 @@
         <v>1161</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="52" spans="2:18">
@@ -14489,7 +14489,7 @@
         <v>1162</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>1729</v>
@@ -14504,16 +14504,16 @@
         <v>1162</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>1980</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="53" spans="2:18">
@@ -14521,7 +14521,7 @@
         <v>1163</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>1730</v>
@@ -14536,13 +14536,13 @@
         <v>1163</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="54" spans="2:18">
@@ -14565,13 +14565,13 @@
         <v>1164</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="55" spans="2:18">
@@ -14594,7 +14594,7 @@
         <v>1166</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>1167</v>
@@ -14620,7 +14620,7 @@
         <v>1168</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>1169</v>
@@ -14631,7 +14631,7 @@
         <v>1170</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>1734</v>
@@ -14646,16 +14646,16 @@
         <v>1170</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="58" spans="2:18">
@@ -14663,7 +14663,7 @@
         <v>1172</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>1735</v>
@@ -14678,16 +14678,16 @@
         <v>1172</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="59" spans="2:18">
@@ -14695,7 +14695,7 @@
         <v>1174</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>1736</v>
@@ -14710,16 +14710,16 @@
         <v>1174</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="60" spans="2:18">
@@ -14742,7 +14742,7 @@
         <v>1176</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>1177</v>
@@ -14753,7 +14753,7 @@
         <v>1178</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>1738</v>
@@ -14768,16 +14768,16 @@
         <v>1178</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -14800,7 +14800,7 @@
         <v>1180</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>1181</v>
@@ -14826,7 +14826,7 @@
         <v>1182</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>1183</v>
@@ -14837,7 +14837,7 @@
         <v>1184</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>1741</v>
@@ -14852,10 +14852,10 @@
         <v>1184</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="Q64" s="10" t="s">
         <v>1185</v>
@@ -14866,7 +14866,7 @@
         <v>1186</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>1742</v>
@@ -14881,10 +14881,10 @@
         <v>1186</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="R65" s="7" t="s">
         <v>1456</v>
@@ -14895,7 +14895,7 @@
         <v>1187</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>1743</v>
@@ -14910,13 +14910,13 @@
         <v>1187</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="67" spans="2:18">
@@ -14939,16 +14939,16 @@
         <v>1174</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="Q67" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>2031</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="68" spans="2:18">
@@ -14971,7 +14971,7 @@
         <v>1189</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>1190</v>
@@ -14997,7 +14997,7 @@
         <v>1191</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="Q69" s="1" t="s">
         <v>1192</v>
@@ -15008,7 +15008,7 @@
         <v>1193</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>1746</v>
@@ -15023,16 +15023,16 @@
         <v>1193</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="Q70" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>2039</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="71" spans="2:18">
@@ -15055,7 +15055,7 @@
         <v>1194</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>1195</v>
@@ -15066,7 +15066,7 @@
         <v>1196</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>1748</v>
@@ -15081,16 +15081,16 @@
         <v>1196</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="73" spans="2:18">
@@ -15098,7 +15098,7 @@
         <v>1197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>1749</v>
@@ -15113,13 +15113,13 @@
         <v>1197</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="74" spans="2:18">
@@ -15142,16 +15142,16 @@
         <v>1198</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>1998</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="75" spans="2:18">
@@ -15174,7 +15174,7 @@
         <v>1199</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>1200</v>
@@ -15185,7 +15185,7 @@
         <v>1201</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>1752</v>
@@ -15200,16 +15200,16 @@
         <v>1201</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="77" spans="2:18">
@@ -15235,16 +15235,16 @@
         <v>1203</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>2002</v>
       </c>
       <c r="R77" s="11" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="78" spans="2:18">
@@ -15252,7 +15252,7 @@
         <v>1205</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>1206</v>
@@ -15270,16 +15270,16 @@
         <v>1205</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="R78" s="11" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="79" spans="2:18">
@@ -15305,7 +15305,7 @@
         <v>1207</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="80" spans="2:18">
@@ -15331,7 +15331,7 @@
         <v>1209</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="81" spans="2:15">
@@ -15357,7 +15357,7 @@
         <v>1211</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="82" spans="2:15">
@@ -15383,7 +15383,7 @@
         <v>1213</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="83" spans="2:15">
@@ -15409,7 +15409,7 @@
         <v>1215</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="84" spans="2:15">
@@ -15435,7 +15435,7 @@
         <v>1217</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="85" spans="2:15">
@@ -15461,7 +15461,7 @@
         <v>1219</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="86" spans="2:15">
@@ -15487,7 +15487,7 @@
         <v>1221</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="87" spans="2:15">
@@ -15513,7 +15513,7 @@
         <v>1223</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="88" spans="2:15">
@@ -15539,7 +15539,7 @@
         <v>1225</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="89" spans="2:15">
@@ -15565,7 +15565,7 @@
         <v>1226</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="90" spans="2:15">
@@ -15591,7 +15591,7 @@
         <v>1228</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="91" spans="2:15">
@@ -15617,7 +15617,7 @@
         <v>1230</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="92" spans="2:15">
@@ -15643,7 +15643,7 @@
         <v>1232</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="93" spans="2:15">
@@ -15669,7 +15669,7 @@
         <v>1234</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="94" spans="2:15">
@@ -15711,8 +15711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="112" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15836,7 +15836,7 @@
         <v>1151</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E14" t="s">
         <v>1303</v>
@@ -15882,26 +15882,26 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C19" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C20" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16381,10 +16381,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="B80" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F80" t="s">
         <v>1858</v>
@@ -16392,15 +16392,15 @@
     </row>
     <row r="81" spans="1:6">
       <c r="B81" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="B82" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1864</v>
@@ -16433,15 +16433,15 @@
         <v>1380</v>
       </c>
       <c r="C85" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F85" t="s">
         <v>2134</v>
-      </c>
-      <c r="F85" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1381</v>
@@ -17234,7 +17234,7 @@
         <v>1514</v>
       </c>
       <c r="C187" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -17271,7 +17271,7 @@
         <v>1520</v>
       </c>
       <c r="C192" t="s">
-        <v>2017</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -18349,7 +18349,7 @@
         <v>1591</v>
       </c>
       <c r="C285" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F285" t="s">
         <v>1593</v>
@@ -18389,7 +18389,7 @@
         <v>1601</v>
       </c>
       <c r="C287" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F287" t="s">
         <v>1603</v>
@@ -18537,7 +18537,7 @@
         <v>1683</v>
       </c>
       <c r="C295" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F295" t="s">
         <v>1684</v>
@@ -18548,7 +18548,7 @@
         <v>1685</v>
       </c>
       <c r="C296" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F296" t="s">
         <v>1686</v>
@@ -18710,7 +18710,7 @@
         <v>1868</v>
       </c>
       <c r="C314" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -18718,7 +18718,7 @@
         <v>1869</v>
       </c>
       <c r="C315" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -18755,7 +18755,7 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -18795,7 +18795,7 @@
         <v>1916</v>
       </c>
       <c r="C325" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -18803,7 +18803,7 @@
         <v>1918</v>
       </c>
       <c r="C326" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -18877,7 +18877,7 @@
     </row>
     <row r="336" spans="1:6">
       <c r="B336" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C336" t="s">
         <v>1938</v>
@@ -19033,7 +19033,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>449</v>
@@ -19041,26 +19041,26 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="12" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C5" t="s">
         <v>2147</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C6" t="s">
         <v>2149</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2150</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19">
       <c r="B7" s="12" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C7" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -19070,74 +19070,74 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="F9" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="12" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="12" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="12" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>2158</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>2159</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="12" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>2160</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>2163</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="12" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>2165</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="12" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>2167</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="12" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>2169</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19147,12 +19147,12 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="12" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>1895</v>
@@ -19160,10 +19160,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="12" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2155</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="22" spans="1:4">
